--- a/VBA/arbitrage.xlsx
+++ b/VBA/arbitrage.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BTC_USDT" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BTC_USD" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETH_USD" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETH_BTC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LTC_USD" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LTC_BTC" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETC_BTC" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETC_ETH" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XMR_USD" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XMR_BTC" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DASH_USD" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DASH_BTC" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -35,32 +45,132 @@
   </si>
   <si>
     <t>Spread B</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:28:24</t>
+  </si>
+  <si>
+    <t>BITF/CXIO</t>
+  </si>
+  <si>
+    <t>BITF/OK</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:28:29</t>
+  </si>
+  <si>
+    <t>BITS/CXIO</t>
+  </si>
+  <si>
+    <t>BITF/GDAX</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:28:00</t>
+  </si>
+  <si>
+    <t>GDAX/CXIO</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:33:23</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:33:29</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:33:00</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:28:25</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:28:02</t>
+  </si>
+  <si>
+    <t>KRKN/CXIO</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:34:03</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:28:40</t>
+  </si>
+  <si>
+    <t>CCEX/CPIA</t>
+  </si>
+  <si>
+    <t>CCEX/LIQU</t>
+  </si>
+  <si>
+    <t>CCEX/PLNX</t>
+  </si>
+  <si>
+    <t>CCEX/BITF</t>
+  </si>
+  <si>
+    <t>CCEX/BITS</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:28:21</t>
+  </si>
+  <si>
+    <t>LIQU/CPIA</t>
+  </si>
+  <si>
+    <t>CCEX/GDAX</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:33:39</t>
+  </si>
+  <si>
+    <t>CCEX/BTRX</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:28:03</t>
+  </si>
+  <si>
+    <t>KRKN/GDAX</t>
+  </si>
+  <si>
+    <t>KRKN/OK</t>
+  </si>
+  <si>
+    <t>KRKN/BITS</t>
+  </si>
+  <si>
+    <t>BITF/BITS</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:34:23</t>
+  </si>
+  <si>
+    <t>2017-10-29 10:34:04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,17 +186,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -374,12 +483,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -404,7 +519,1370 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8706913493887911</v>
+      </c>
+      <c r="D2" t="n">
+        <v>147993821.941327</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3452503.388469</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0999999999994543</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.315299999999297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3720495516510325</v>
+      </c>
+      <c r="D3" t="n">
+        <v>147993821.941327</v>
+      </c>
+      <c r="E3" t="n">
+        <v>930691.4343129999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0999999999994543</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.90999999999985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3270903536459225</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40424213.41675</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3452503.388469</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.76000000000022</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.315299999999297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1918845108370168</v>
+      </c>
+      <c r="D5" t="n">
+        <v>147993821.941327</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28529746.110092</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0999999999994543</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1820962264119354</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28529746.110092</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3452503.388469</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.315299999999297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9509141114332986</v>
+      </c>
+      <c r="D8" t="n">
+        <v>147907208.22616</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3452248.895168</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.199999999999818</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.108500000000276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3690641613377572</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40568102.92382</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3452248.895168</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.670000000000073</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.108500000000276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3146390990369343</v>
+      </c>
+      <c r="D10" t="n">
+        <v>147907208.22616</v>
+      </c>
+      <c r="E10" t="n">
+        <v>28469407.510696</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.199999999999818</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1704830163315924</v>
+      </c>
+      <c r="D11" t="n">
+        <v>147907208.22616</v>
+      </c>
+      <c r="E11" t="n">
+        <v>929488.811288</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.199999999999818</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30.63000000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1400579145856609</v>
+      </c>
+      <c r="D12" t="n">
+        <v>28469407.510696</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3452248.895168</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.108500000000276</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4872578523485008</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22520532.744778</v>
+      </c>
+      <c r="E2" t="n">
+        <v>793415.929722</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3589999899999725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3365063493475169</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2247542.8483484</v>
+      </c>
+      <c r="E3" t="n">
+        <v>793415.929722</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1100000000000136</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3589999899999725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02791416498906688</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1796033.0916584</v>
+      </c>
+      <c r="E4" t="n">
+        <v>793415.929722</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.099999999999966</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3589999899999725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01075600087525541</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22520532.744778</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8412215.3159396</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8017869016367902</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22730798.620135</v>
+      </c>
+      <c r="E7" t="n">
+        <v>795200.7315959999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3509999799999832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4299443494985184</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2273578.251308</v>
+      </c>
+      <c r="E8" t="n">
+        <v>795200.7315959999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3509999799999832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3438175732523505</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22730798.620135</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8421238.105892999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2251124851024066</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1971641.276776</v>
+      </c>
+      <c r="E10" t="n">
+        <v>795200.7315959999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6800000000000068</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3509999799999832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3256890894446999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>267949.2601116</v>
+      </c>
+      <c r="E2" t="n">
+        <v>151648.8531396</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0008098799999999989</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0002009499999999984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3073134408261911</v>
+      </c>
+      <c r="D3" t="n">
+        <v>267949.2601116</v>
+      </c>
+      <c r="E3" t="n">
+        <v>701974.9847556</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0008098799999999989</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.130000000005963e-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1644549373657974</v>
+      </c>
+      <c r="D4" t="n">
+        <v>267949.2601116</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10065330.6131576</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0008098799999999989</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.196000000000142e-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1205966907060344</v>
+      </c>
+      <c r="D5" t="n">
+        <v>267949.2601116</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10481062.15143</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0008098799999999989</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.000000000000225e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04243457612382414</v>
+      </c>
+      <c r="D6" t="n">
+        <v>267949.2601116</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1975317.9298704</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0008098799999999989</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.994000000000138e-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.008447323541442125</v>
+      </c>
+      <c r="D7" t="n">
+        <v>701974.9847556</v>
+      </c>
+      <c r="E7" t="n">
+        <v>151648.8531396</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.130000000005963e-06</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0002009499999999984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00343671801239852</v>
+      </c>
+      <c r="D8" t="n">
+        <v>267949.2601116</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1718012.3121364</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0008098799999999989</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.000000000000531e-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5216939279069228</v>
+      </c>
+      <c r="D10" t="n">
+        <v>270779.855124</v>
+      </c>
+      <c r="E10" t="n">
+        <v>151906.2652926</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0006543999999999994</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0001978600000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4591212939367589</v>
+      </c>
+      <c r="D11" t="n">
+        <v>270779.855124</v>
+      </c>
+      <c r="E11" t="n">
+        <v>702815.7349655001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0006543999999999994</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.320999999999717e-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4115475068377991</v>
+      </c>
+      <c r="D12" t="n">
+        <v>270779.855124</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8710777.432479201</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0006543999999999994</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.589999999996762e-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.08492645650509999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>270779.855124</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10161254.6203116</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0006543999999999994</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.586000000000173e-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02294913160694988</v>
+      </c>
+      <c r="D14" t="n">
+        <v>270779.855124</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1988436.2149925</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0006543999999999994</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.994000000000138e-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0228907224243611</v>
+      </c>
+      <c r="D15" t="n">
+        <v>270779.855124</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1762834.6472828</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0006543999999999994</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.999999999999919e-05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1631812768071854</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1029660.49906901</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5001371.05977612</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1521880503006777</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5638159.283012689</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5001371.05977612</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08300000000000551</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1039839620868932</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1029660.49906901</v>
+      </c>
+      <c r="E4" t="n">
+        <v>180654.8656098</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.09298421724879574</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5638159.283012689</v>
+      </c>
+      <c r="E5" t="n">
+        <v>180654.8656098</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08300000000000551</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.03567576119646375</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1029660.49906901</v>
+      </c>
+      <c r="E6" t="n">
+        <v>833835.92991219</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.08999999999999631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02466849480936021</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5638159.283012689</v>
+      </c>
+      <c r="E7" t="n">
+        <v>833835.92991219</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.08300000000000551</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.08999999999999631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1774393523408908</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5622289.5059968</v>
+      </c>
+      <c r="E9" t="n">
+        <v>180562.0820108</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2899999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1638328906343898</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5622289.5059968</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4988497.476135881</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01000000000000512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1407668465923002</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1031425.24464098</v>
+      </c>
+      <c r="E11" t="n">
+        <v>180562.0820108</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07000000000000028</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2899999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1271553861856867</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1031425.24464098</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4988497.476135881</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.07000000000000028</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01000000000000512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/VBA/arbitrage.xlsx
+++ b/VBA/arbitrage.xlsx
@@ -10,13 +10,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETH_USD" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETH_BTC" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LTC_USD" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LTC_BTC" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETC_BTC" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETC_ETH" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XMR_USD" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XMR_BTC" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DASH_USD" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DASH_BTC" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -47,103 +40,181 @@
     <t>Spread B</t>
   </si>
   <si>
-    <t>2017-10-29 10:28:24</t>
-  </si>
-  <si>
-    <t>BITF/CXIO</t>
+    <t>2017-10-31 15:40:28</t>
+  </si>
+  <si>
+    <t>CXIO/OK</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:41:06</t>
+  </si>
+  <si>
+    <t>BITS/OK</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:40:53</t>
   </si>
   <si>
     <t>BITF/OK</t>
   </si>
   <si>
-    <t>2017-10-29 10:28:29</t>
-  </si>
-  <si>
-    <t>BITS/CXIO</t>
-  </si>
-  <si>
-    <t>BITF/GDAX</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:28:00</t>
-  </si>
-  <si>
-    <t>GDAX/CXIO</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:33:23</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:33:29</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:33:00</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:28:25</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:28:02</t>
-  </si>
-  <si>
-    <t>KRKN/CXIO</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:34:03</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:28:40</t>
-  </si>
-  <si>
-    <t>CCEX/CPIA</t>
-  </si>
-  <si>
-    <t>CCEX/LIQU</t>
-  </si>
-  <si>
-    <t>CCEX/PLNX</t>
-  </si>
-  <si>
-    <t>CCEX/BITF</t>
-  </si>
-  <si>
-    <t>CCEX/BITS</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:28:21</t>
+    <t>2017-10-31 15:41:20</t>
+  </si>
+  <si>
+    <t>GDAX/OK</t>
+  </si>
+  <si>
+    <t>CXIO/GDAX</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:42:27</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:41:54</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:42:03</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:42:20</t>
+  </si>
+  <si>
+    <t>CXIO/BITS</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:42:53</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:43:06</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:43:20</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:43:27</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:43:53</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:44:03</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:44:20</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:44:27</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:44:53</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:45:04</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:45:20</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:41:27</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:40:54</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:41:21</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:40:40</t>
+  </si>
+  <si>
+    <t>KRKN/OK</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:42:21</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:41:39</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:43:41</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:43:21</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:44:21</t>
+  </si>
+  <si>
+    <t>CXIO/KRKN</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:45:28</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:44:54</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:45:21</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:45:05</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:44:40</t>
+  </si>
+  <si>
+    <t>LIQU/CCEX</t>
+  </si>
+  <si>
+    <t>LIQU/PLNX</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:42:37</t>
   </si>
   <si>
     <t>LIQU/CPIA</t>
   </si>
   <si>
-    <t>CCEX/GDAX</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:33:39</t>
-  </si>
-  <si>
-    <t>CCEX/BTRX</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:28:03</t>
-  </si>
-  <si>
-    <t>KRKN/GDAX</t>
-  </si>
-  <si>
-    <t>KRKN/OK</t>
-  </si>
-  <si>
-    <t>KRKN/BITS</t>
-  </si>
-  <si>
-    <t>BITF/BITS</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:34:23</t>
-  </si>
-  <si>
-    <t>2017-10-29 10:34:04</t>
+    <t>2017-10-31 15:42:09</t>
+  </si>
+  <si>
+    <t>BTRX/CPIA</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:43:37</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:44:36</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:44:07</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:45:39</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:45:18</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:41:40</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:42:42</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:43:42</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:43:22</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:44:42</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:45:09</t>
+  </si>
+  <si>
+    <t>2017-10-31 15:45:22</t>
   </si>
 </sst>
 </file>
@@ -488,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,310 +598,594 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8706913493887911</v>
+        <v>1.278197000948373</v>
       </c>
       <c r="D2" t="n">
-        <v>147993821.941327</v>
+        <v>6614549.998188</v>
       </c>
       <c r="E2" t="n">
-        <v>3452503.388469</v>
+        <v>2016311.844096</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0999999999994543</v>
+        <v>9.999999929277692e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>3.315299999999297</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3720495516510325</v>
+        <v>1.092670480516961</v>
       </c>
       <c r="D3" t="n">
-        <v>147993821.941327</v>
+        <v>76566881.08838999</v>
       </c>
       <c r="E3" t="n">
-        <v>930691.4343129999</v>
+        <v>2016311.844096</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0999999999994543</v>
+        <v>1.899999999999636</v>
       </c>
       <c r="G3" t="n">
-        <v>36.90999999999985</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3270903536459225</v>
+        <v>1.007671050010888</v>
       </c>
       <c r="D4" t="n">
-        <v>40424213.41675</v>
+        <v>190353940.081338</v>
       </c>
       <c r="E4" t="n">
-        <v>3452503.388469</v>
+        <v>2016311.844096</v>
       </c>
       <c r="F4" t="n">
-        <v>13.76000000000022</v>
+        <v>0.1000000000003638</v>
       </c>
       <c r="G4" t="n">
-        <v>3.315299999999297</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1918845108370168</v>
+        <v>0.7150468698392229</v>
       </c>
       <c r="D5" t="n">
-        <v>147993821.941327</v>
+        <v>72330118.515765</v>
       </c>
       <c r="E5" t="n">
-        <v>28529746.110092</v>
+        <v>2016311.844096</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0999999999994543</v>
+        <v>0.01000000000021828</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01000000000021828</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1820962264119354</v>
+        <v>0.06864734135809192</v>
       </c>
       <c r="D6" t="n">
-        <v>28529746.110092</v>
+        <v>6614549.998188</v>
       </c>
       <c r="E6" t="n">
-        <v>3452503.388469</v>
+        <v>72330118.515765</v>
       </c>
       <c r="F6" t="n">
+        <v>9.999999929277692e-05</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.01000000000021828</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.315299999999297</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9509141114332986</v>
+        <v>0.8558318796450246</v>
       </c>
       <c r="D8" t="n">
-        <v>147907208.22616</v>
+        <v>6652751.475381</v>
       </c>
       <c r="E8" t="n">
-        <v>3452248.895168</v>
+        <v>2020946.040036</v>
       </c>
       <c r="F8" t="n">
-        <v>1.199999999999818</v>
+        <v>4.390500000000429</v>
       </c>
       <c r="G8" t="n">
-        <v>4.108500000000276</v>
+        <v>57.81999999999971</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3690641613377572</v>
+        <v>0.3914137848746433</v>
       </c>
       <c r="D9" t="n">
-        <v>40568102.92382</v>
+        <v>190277752.878774</v>
       </c>
       <c r="E9" t="n">
-        <v>3452248.895168</v>
+        <v>2020946.040036</v>
       </c>
       <c r="F9" t="n">
-        <v>8.670000000000073</v>
+        <v>0.0999999999994543</v>
       </c>
       <c r="G9" t="n">
-        <v>4.108500000000276</v>
+        <v>57.81999999999971</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3146390990369343</v>
+        <v>0.2454943161709996</v>
       </c>
       <c r="D10" t="n">
-        <v>147907208.22616</v>
+        <v>76561907.945061</v>
       </c>
       <c r="E10" t="n">
-        <v>28469407.510696</v>
+        <v>2020946.040036</v>
       </c>
       <c r="F10" t="n">
-        <v>1.199999999999818</v>
+        <v>3.849999999999454</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01000000000021828</v>
+        <v>57.81999999999971</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
       <c r="C11" t="n">
-        <v>0.1704830163315924</v>
+        <v>0.2342440614857211</v>
       </c>
       <c r="D11" t="n">
-        <v>147907208.22616</v>
+        <v>6652751.475381</v>
       </c>
       <c r="E11" t="n">
-        <v>929488.811288</v>
+        <v>72257040.56504999</v>
       </c>
       <c r="F11" t="n">
-        <v>1.199999999999818</v>
+        <v>4.390500000000429</v>
       </c>
       <c r="G11" t="n">
-        <v>30.63000000000011</v>
+        <v>0.009999999999308784</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1400579145856609</v>
+        <v>0.124779972715722</v>
       </c>
       <c r="D12" t="n">
-        <v>28469407.510696</v>
+        <v>72257040.56504999</v>
       </c>
       <c r="E12" t="n">
-        <v>3452248.895168</v>
+        <v>2020946.040036</v>
       </c>
       <c r="F12" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G12" t="n">
+        <v>57.81999999999971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05305620880810528</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6652751.475381</v>
+      </c>
+      <c r="E13" t="n">
+        <v>76561907.945061</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.390500000000429</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.849999999999454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7874120330430094</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6652751.475381</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2019986.00826</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.240999999999985</v>
+      </c>
+      <c r="G15" t="n">
+        <v>56.94999999999982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4361729109605702</v>
+      </c>
+      <c r="D16" t="n">
+        <v>190258850.976546</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2019986.00826</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1999999999998181</v>
+      </c>
+      <c r="G16" t="n">
+        <v>56.94999999999982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3315146239961749</v>
+      </c>
+      <c r="D17" t="n">
+        <v>76597699.768029</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2019986.00826</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01999999999952706</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56.94999999999982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1512219923606807</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6652751.475381</v>
+      </c>
+      <c r="E18" t="n">
+        <v>72541961.91052799</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.240999999999985</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1389544583839008</v>
+      </c>
+      <c r="D19" t="n">
+        <v>72541961.91052799</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2019986.00826</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G19" t="n">
+        <v>56.94999999999982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.871130488204829</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6654955.590887999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2021932.88121</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.64850000000024</v>
+      </c>
+      <c r="G21" t="n">
+        <v>56.52999999999975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4035866655011989</v>
+      </c>
+      <c r="D22" t="n">
+        <v>190031082.161052</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2021932.88121</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.199999999999818</v>
+      </c>
+      <c r="G22" t="n">
+        <v>56.52999999999975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.353312466857566</v>
+      </c>
+      <c r="D23" t="n">
+        <v>76657711.328814</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2021932.88121</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10.76000000000022</v>
+      </c>
+      <c r="G23" t="n">
+        <v>56.52999999999975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2251371363957321</v>
+      </c>
+      <c r="D24" t="n">
+        <v>72612522.96942599</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2021932.88121</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.01000000000021828</v>
       </c>
-      <c r="G12" t="n">
-        <v>4.108500000000276</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="G24" t="n">
+        <v>56.52999999999975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1493032455924627</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6654955.590887999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>72612522.96942599</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.64850000000024</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8208591155505931</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6644178.524206</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2018613.24689</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.09389999999984866</v>
+      </c>
+      <c r="G27" t="n">
+        <v>55.9399999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4174587325702437</v>
+      </c>
+      <c r="D28" t="n">
+        <v>189620540.47577</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2018613.24689</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7000000000007276</v>
+      </c>
+      <c r="G28" t="n">
+        <v>55.9399999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3676664667952503</v>
+      </c>
+      <c r="D29" t="n">
+        <v>76519048.430252</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2018613.24689</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10.01999999999953</v>
+      </c>
+      <c r="G29" t="n">
+        <v>55.9399999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2827212906536164</v>
+      </c>
+      <c r="D30" t="n">
+        <v>72593982.269743</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2018613.24689</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G30" t="n">
+        <v>55.9399999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0409722642000187</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6644178.524206</v>
+      </c>
+      <c r="E31" t="n">
+        <v>72593982.269743</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.09389999999984866</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01000000000021828</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +1199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,186 +1232,692 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4872578523485008</v>
+        <v>1.274673784336839</v>
       </c>
       <c r="D2" t="n">
-        <v>22520532.744778</v>
+        <v>693878.2413068999</v>
       </c>
       <c r="E2" t="n">
-        <v>793415.929722</v>
+        <v>239823.9556921</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.5224988599999847</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3589999899999725</v>
+        <v>1.840000000000032</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3365063493475169</v>
+        <v>1.009387839756917</v>
       </c>
       <c r="D3" t="n">
-        <v>2247542.8483484</v>
+        <v>22365875.5942375</v>
       </c>
       <c r="E3" t="n">
-        <v>793415.929722</v>
+        <v>239823.9556921</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1100000000000136</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3589999899999725</v>
+        <v>1.840000000000032</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02791416498906688</v>
+        <v>0.8617659715792089</v>
       </c>
       <c r="D4" t="n">
-        <v>1796033.0916584</v>
+        <v>16129762.6700301</v>
       </c>
       <c r="E4" t="n">
-        <v>793415.929722</v>
+        <v>239823.9556921</v>
       </c>
       <c r="F4" t="n">
-        <v>1.099999999999966</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3589999899999725</v>
+        <v>1.840000000000032</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01075600087525541</v>
+        <v>0.8284678542694428</v>
       </c>
       <c r="D5" t="n">
-        <v>22520532.744778</v>
+        <v>3047669.1802557</v>
       </c>
       <c r="E5" t="n">
-        <v>8412215.3159396</v>
+        <v>239823.9556921</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.02000000000003865</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009999999999990905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8017869016367902</v>
-      </c>
-      <c r="D7" t="n">
-        <v>22730798.620135</v>
-      </c>
-      <c r="E7" t="n">
-        <v>795200.7315959999</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1499999999999773</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3509999799999832</v>
+        <v>1.840000000000032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7674690924465395</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3547763.9194829</v>
+      </c>
+      <c r="E6" t="n">
+        <v>239823.9556921</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6700000000000159</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.840000000000032</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4299443494985184</v>
+        <v>1.280375592206177</v>
       </c>
       <c r="D8" t="n">
-        <v>2273578.251308</v>
+        <v>692536.5767385</v>
       </c>
       <c r="E8" t="n">
-        <v>795200.7315959999</v>
+        <v>242284.4733361</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.5044999899999993</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3509999799999832</v>
+        <v>1.970000000000027</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3438175732523505</v>
+        <v>1.006059960966196</v>
       </c>
       <c r="D9" t="n">
-        <v>22730798.620135</v>
+        <v>22371257.9919543</v>
       </c>
       <c r="E9" t="n">
-        <v>8421238.105892999</v>
+        <v>242284.4733361</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1499999999999773</v>
+        <v>0.02000000000003865</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01000000000004775</v>
+        <v>1.970000000000027</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7808998055913113</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16134962.3119074</v>
+      </c>
+      <c r="E10" t="n">
+        <v>242284.4733361</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.970000000000027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7512146757586039</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3560389.3507351</v>
+      </c>
+      <c r="E11" t="n">
+        <v>242284.4733361</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6500000000000341</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.970000000000027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7149108363658457</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3051811.6664451</v>
+      </c>
+      <c r="E12" t="n">
+        <v>242284.4733361</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3700000000000045</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.970000000000027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2251124851024066</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1971641.276776</v>
-      </c>
-      <c r="E10" t="n">
-        <v>795200.7315959999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6800000000000068</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.3509999799999832</v>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001412221970947327</v>
+      </c>
+      <c r="D13" t="n">
+        <v>692536.5767385</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16134962.3119074</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5044999899999993</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.44323305323633</v>
+      </c>
+      <c r="D15" t="n">
+        <v>693366.6479207</v>
+      </c>
+      <c r="E15" t="n">
+        <v>242682.8779921</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.000000793283107e-08</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.470000000000027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.102378373439799</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22378871.1790748</v>
+      </c>
+      <c r="E16" t="n">
+        <v>242682.8779921</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.160000000000025</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.470000000000027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8404649700648705</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3052824.0323503</v>
+      </c>
+      <c r="E17" t="n">
+        <v>242682.8779921</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3500000000000227</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.470000000000027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8315396184775349</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3560329.7744833</v>
+      </c>
+      <c r="E18" t="n">
+        <v>242682.8779921</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5799999999999841</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.470000000000027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7836461915246226</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16143265.5752407</v>
+      </c>
+      <c r="E19" t="n">
+        <v>242682.8779921</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.470000000000027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1636223734080528</v>
+      </c>
+      <c r="D20" t="n">
+        <v>693366.6479207</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16143265.5752407</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.000000793283107e-08</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.442223098432966</v>
+      </c>
+      <c r="D22" t="n">
+        <v>693249.6451657</v>
+      </c>
+      <c r="E22" t="n">
+        <v>242741.2136791</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0009999900000252637</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.180000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.040405087576048</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22387983.101988</v>
+      </c>
+      <c r="E23" t="n">
+        <v>242741.2136791</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.180000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8211259029005578</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3561457.9340887</v>
+      </c>
+      <c r="E24" t="n">
+        <v>242741.2136791</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6200000000000045</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.180000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7829599977371827</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16144447.6120049</v>
+      </c>
+      <c r="E25" t="n">
+        <v>242741.2136791</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.180000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7139250368402281</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3053519.1853613</v>
+      </c>
+      <c r="E26" t="n">
+        <v>242741.2136791</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1800000000000068</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.180000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1632944009328199</v>
+      </c>
+      <c r="D27" t="n">
+        <v>693249.6451657</v>
+      </c>
+      <c r="E27" t="n">
+        <v>16144447.6120049</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0009999900000252637</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.077278536812051</v>
+      </c>
+      <c r="D28" t="n">
+        <v>693249.6451657</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3053519.1853613</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0009999900000252637</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1800000000000068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.442223098432966</v>
+      </c>
+      <c r="D30" t="n">
+        <v>694323.6455506</v>
+      </c>
+      <c r="E30" t="n">
+        <v>242741.2136791</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0009999900000252637</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.180000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.082324118384338</v>
+      </c>
+      <c r="D31" t="n">
+        <v>22373604.4909774</v>
+      </c>
+      <c r="E31" t="n">
+        <v>242741.2136791</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1399999999999864</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.180000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8475524176346817</v>
+      </c>
+      <c r="D32" t="n">
+        <v>16146200.7149264</v>
+      </c>
+      <c r="E32" t="n">
+        <v>242741.2136791</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.180000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8405616170771877</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3564543.8749009</v>
+      </c>
+      <c r="E33" t="n">
+        <v>242741.2136791</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5600000000000023</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.180000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.739591261744141</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3054769.4031073</v>
+      </c>
+      <c r="E34" t="n">
+        <v>242741.2136791</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3700000000000045</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.180000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.09825208320320825</v>
+      </c>
+      <c r="D35" t="n">
+        <v>694323.6455506</v>
+      </c>
+      <c r="E35" t="n">
+        <v>16146200.7149264</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0009999900000252637</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.009999999999990905</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,301 +1964,347 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3256890894446999</v>
+        <v>0.1545813570794317</v>
       </c>
       <c r="D2" t="n">
-        <v>267949.2601116</v>
+        <v>805042.7622951999</v>
       </c>
       <c r="E2" t="n">
-        <v>151648.8531396</v>
+        <v>388075.9845521</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0008098799999999989</v>
+        <v>0.0002785499999999955</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002009499999999984</v>
+        <v>0.0008978299999999953</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3073134408261911</v>
+        <v>0.0096589639455908</v>
       </c>
       <c r="D3" t="n">
-        <v>267949.2601116</v>
+        <v>805042.7622951999</v>
       </c>
       <c r="E3" t="n">
-        <v>701974.9847556</v>
+        <v>17563686.9973747</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008098799999999989</v>
+        <v>0.0002785499999999955</v>
       </c>
       <c r="G3" t="n">
-        <v>5.130000000005963e-06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1644549373657974</v>
-      </c>
-      <c r="D4" t="n">
-        <v>267949.2601116</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10065330.6131576</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0008098799999999989</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.196000000000142e-05</v>
+        <v>1.497000000000304e-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1205966907060344</v>
+        <v>0.1982147134682083</v>
       </c>
       <c r="D5" t="n">
-        <v>267949.2601116</v>
+        <v>805028.0680494</v>
       </c>
       <c r="E5" t="n">
-        <v>10481062.15143</v>
+        <v>279731.0679969</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0008098799999999989</v>
+        <v>0.0003180999999999948</v>
       </c>
       <c r="G5" t="n">
-        <v>3.000000000000225e-05</v>
+        <v>0.0001078499999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04243457612382414</v>
+        <v>0.09177326302672351</v>
       </c>
       <c r="D6" t="n">
-        <v>267949.2601116</v>
+        <v>805028.0680494</v>
       </c>
       <c r="E6" t="n">
-        <v>1975317.9298704</v>
+        <v>388075.9845521</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0008098799999999989</v>
+        <v>0.0003180999999999948</v>
       </c>
       <c r="G6" t="n">
-        <v>5.994000000000138e-05</v>
+        <v>0.0008978200000000006</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008447323541442125</v>
+        <v>0.06178852482591741</v>
       </c>
       <c r="D7" t="n">
-        <v>701974.9847556</v>
+        <v>13321043.1378414</v>
       </c>
       <c r="E7" t="n">
-        <v>151648.8531396</v>
+        <v>279731.0679969</v>
       </c>
       <c r="F7" t="n">
-        <v>5.130000000005963e-06</v>
+        <v>7.568999999999632e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002009499999999984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.00343671801239852</v>
-      </c>
-      <c r="D8" t="n">
-        <v>267949.2601116</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1718012.3121364</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0008098799999999989</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.000000000000531e-05</v>
+        <v>0.0001078499999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.208296900790198</v>
+      </c>
+      <c r="D9" t="n">
+        <v>804247.7667081</v>
+      </c>
+      <c r="E9" t="n">
+        <v>279731.0679969</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0003132699999999974</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0001078499999999996</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5216939279069228</v>
+        <v>0.1019074527110649</v>
       </c>
       <c r="D10" t="n">
-        <v>270779.855124</v>
+        <v>804247.7667081</v>
       </c>
       <c r="E10" t="n">
-        <v>151906.2652926</v>
+        <v>388075.9845521</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0006543999999999994</v>
+        <v>0.0003132699999999974</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001978600000000011</v>
+        <v>0.0008978000000000042</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4591212939367589</v>
+        <v>0.051735598696265</v>
       </c>
       <c r="D11" t="n">
-        <v>270779.855124</v>
+        <v>13381563.5410457</v>
       </c>
       <c r="E11" t="n">
-        <v>702815.7349655001</v>
+        <v>279731.0679969</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006543999999999994</v>
+        <v>1.500000000000112e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>7.320999999999717e-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4115475068377991</v>
-      </c>
-      <c r="D12" t="n">
-        <v>270779.855124</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8710777.432479201</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0006543999999999994</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.589999999996762e-06</v>
+        <v>0.0001078499999999996</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08492645650509999</v>
+        <v>0.2181896395816187</v>
       </c>
       <c r="D13" t="n">
-        <v>270779.855124</v>
+        <v>804244.4132786</v>
       </c>
       <c r="E13" t="n">
-        <v>10161254.6203116</v>
+        <v>279794.7650499</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0006543999999999994</v>
+        <v>0.0003654499999999963</v>
       </c>
       <c r="G13" t="n">
-        <v>4.586000000000173e-05</v>
+        <v>0.0001078499999999996</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02294913160694988</v>
+        <v>0.1118102488709181</v>
       </c>
       <c r="D14" t="n">
-        <v>270779.855124</v>
+        <v>804244.4132786</v>
       </c>
       <c r="E14" t="n">
-        <v>1988436.2149925</v>
+        <v>388164.3526291</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0006543999999999994</v>
+        <v>0.0003654499999999963</v>
       </c>
       <c r="G14" t="n">
-        <v>5.994000000000138e-05</v>
+        <v>0.0008978000000000042</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0228907224243611</v>
+        <v>0.05132421463562317</v>
       </c>
       <c r="D15" t="n">
-        <v>270779.855124</v>
+        <v>13456205.2772972</v>
       </c>
       <c r="E15" t="n">
-        <v>1762834.6472828</v>
+        <v>279794.7650499</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0006543999999999994</v>
+        <v>8.089000000000013e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>1.999999999999919e-05</v>
+        <v>0.0001078499999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2284893503619925</v>
+      </c>
+      <c r="D17" t="n">
+        <v>803679.5399334999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>279794.7650499</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.00035578</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0001078499999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1221204307643222</v>
+      </c>
+      <c r="D18" t="n">
+        <v>803679.5399334999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>388212.7193904</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.00035578</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0008978000000000042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.05132508872529516</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13465413.96427</v>
+      </c>
+      <c r="E19" t="n">
+        <v>279794.7650499</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.075000000000443e-05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0001078499999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01876363821408869</v>
+      </c>
+      <c r="D20" t="n">
+        <v>803679.5399334999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>17643073.2312773</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.00035578</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.190000000000219e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +2318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1444,442 +2351,462 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1631812768071854</v>
+        <v>1.4311840464145</v>
       </c>
       <c r="D2" t="n">
-        <v>1029660.49906901</v>
+        <v>636289.9247314499</v>
       </c>
       <c r="E2" t="n">
-        <v>5001371.05977612</v>
+        <v>542412.14456759</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1000000000000014</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01999999999999602</v>
+        <v>0.05999999999999517</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1521880503006777</v>
+        <v>1.405012822848486</v>
       </c>
       <c r="D3" t="n">
-        <v>5638159.283012689</v>
+        <v>7846370.54254262</v>
       </c>
       <c r="E3" t="n">
-        <v>5001371.05977612</v>
+        <v>542412.14456759</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08300000000000551</v>
+        <v>0.005000000000002558</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01999999999999602</v>
+        <v>0.05999999999999517</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1039839620868932</v>
+        <v>1.252180935297175</v>
       </c>
       <c r="D4" t="n">
-        <v>1029660.49906901</v>
+        <v>9548658.32368404</v>
       </c>
       <c r="E4" t="n">
-        <v>180654.8656098</v>
+        <v>542412.14456759</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1000000000000014</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4399999999999977</v>
+        <v>0.05999999999999517</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09298421724879574</v>
+        <v>1.162902728533984</v>
       </c>
       <c r="D5" t="n">
-        <v>5638159.283012689</v>
+        <v>680002.93006305</v>
       </c>
       <c r="E5" t="n">
-        <v>180654.8656098</v>
+        <v>542412.14456759</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08300000000000551</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4399999999999977</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03567576119646375</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1029660.49906901</v>
-      </c>
-      <c r="E6" t="n">
-        <v>833835.92991219</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.08999999999999631</v>
+        <v>0.05999999999999517</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.200560490508163</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7866988.55062439</v>
+      </c>
+      <c r="E7" t="n">
+        <v>547174.26337959</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03400000000000603</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.02466849480936021</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5638159.283012689</v>
-      </c>
-      <c r="E7" t="n">
-        <v>833835.92991219</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.08300000000000551</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.08999999999999631</v>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.079295192837531</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9551107.85685947</v>
+      </c>
+      <c r="E8" t="n">
+        <v>547174.26337959</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.04999999999999716</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1774393523408908</v>
+        <v>1.028326354986698</v>
       </c>
       <c r="D9" t="n">
-        <v>5622289.5059968</v>
+        <v>632764.88065736</v>
       </c>
       <c r="E9" t="n">
-        <v>180562.0820108</v>
+        <v>547174.26337959</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01999999999999602</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2899999999999991</v>
+        <v>0.04999999999999716</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1638328906343898</v>
+        <v>0.989913276640849</v>
       </c>
       <c r="D10" t="n">
-        <v>5622289.5059968</v>
+        <v>679994.37154616</v>
       </c>
       <c r="E10" t="n">
-        <v>4988497.476135881</v>
+        <v>547174.26337959</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01999999999999602</v>
+        <v>0.2800000000000011</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01000000000000512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1407668465923002</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1031425.24464098</v>
-      </c>
-      <c r="E11" t="n">
-        <v>180562.0820108</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.2899999999999991</v>
+        <v>0.04999999999999716</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1271553861856867</v>
+        <v>1.362637709745241</v>
       </c>
       <c r="D12" t="n">
-        <v>1031425.24464098</v>
+        <v>632664.1448288701</v>
       </c>
       <c r="E12" t="n">
-        <v>4988497.476135881</v>
+        <v>547579.93369959</v>
       </c>
       <c r="F12" t="n">
+        <v>0.1999999999999957</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.217234819902517</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7866709.049408221</v>
+      </c>
+      <c r="E13" t="n">
+        <v>547579.93369959</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.01000000000000512</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="G13" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.078558167122352</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9532873.63518974</v>
+      </c>
+      <c r="E14" t="n">
+        <v>547579.93369959</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.059755237269642</v>
+      </c>
+      <c r="D15" t="n">
+        <v>679994.37154616</v>
+      </c>
+      <c r="E15" t="n">
+        <v>547579.93369959</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.240000000000002</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.221328822268009</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7866958.435463199</v>
+      </c>
+      <c r="E17" t="n">
+        <v>549347.77054906</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.08100000000000307</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.07000000000000028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.079189903449648</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9516045.190801259</v>
+      </c>
+      <c r="E18" t="n">
+        <v>549347.77054906</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.07000000000000028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.062843725980865</v>
+      </c>
+      <c r="D19" t="n">
+        <v>631388.67714374</v>
+      </c>
+      <c r="E19" t="n">
+        <v>549347.77054906</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.07000000000000028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9898079872529666</v>
+      </c>
+      <c r="D20" t="n">
+        <v>679563.51490064</v>
+      </c>
+      <c r="E20" t="n">
+        <v>549347.77054906</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2800000000000011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.07000000000000028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.207363939788516</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7866958.435463199</v>
+      </c>
+      <c r="E22" t="n">
+        <v>549347.77054906</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.08899999999999864</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.114532041315568</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9511614.94709222</v>
+      </c>
+      <c r="E23" t="n">
+        <v>549347.77054906</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.025255414506782</v>
+      </c>
+      <c r="D24" t="n">
+        <v>679563.51490064</v>
+      </c>
+      <c r="E24" t="n">
+        <v>549347.77054906</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.259999999999998</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9940195627682717</v>
+      </c>
+      <c r="D25" t="n">
+        <v>631388.67714374</v>
+      </c>
+      <c r="E25" t="n">
+        <v>549347.77054906</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03999999999999915</v>
       </c>
     </row>
   </sheetData>

--- a/VBA/arbitrage.xlsx
+++ b/VBA/arbitrage.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,69 @@
     <t>2017-10-31 15:45:20</t>
   </si>
   <si>
+    <t>2017-10-31 16:01:28</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:02:21</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:02:04</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:01:53</t>
+  </si>
+  <si>
+    <t>CXIO/BITF</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:02:28</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:03:03</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:02:53</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:03:21</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:03:27</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:04:04</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:04:20</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:03:53</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:04:27</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:05:02</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:04:56</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:05:20</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:05:28</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:06:02</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:05:54</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:06:21</t>
+  </si>
+  <si>
     <t>2017-10-31 15:41:27</t>
   </si>
   <si>
@@ -163,6 +226,45 @@
     <t>2017-10-31 15:44:40</t>
   </si>
   <si>
+    <t>2017-10-31 16:02:29</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:01:39</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:02:41</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:03:54</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:04:21</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:03:40</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:05:29</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:05:21</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:05:03</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:04:39</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:06:27</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:06:03</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:05:39</t>
+  </si>
+  <si>
     <t>LIQU/CCEX</t>
   </si>
   <si>
@@ -196,6 +298,42 @@
     <t>2017-10-31 15:45:18</t>
   </si>
   <si>
+    <t>2017-10-31 16:01:37</t>
+  </si>
+  <si>
+    <t>LIQU/BTRX</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:02:36</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:04:36</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:04:10</t>
+  </si>
+  <si>
+    <t>CCEX/CPIA</t>
+  </si>
+  <si>
+    <t>PLNX/CPIA</t>
+  </si>
+  <si>
+    <t>GDAX/CPIA</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:05:36</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:05:33</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:05:08</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:06:36</t>
+  </si>
+  <si>
     <t>2017-10-31 15:41:40</t>
   </si>
   <si>
@@ -215,6 +353,21 @@
   </si>
   <si>
     <t>2017-10-31 15:45:22</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:02:22</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:02:05</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:04:40</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:05:40</t>
+  </si>
+  <si>
+    <t>2017-10-31 16:06:41</t>
   </si>
 </sst>
 </file>
@@ -559,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1186,6 +1339,673 @@
       </c>
       <c r="G31" t="n">
         <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9736629501219198</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6709036.268739999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2018407.988636</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.996100000000297</v>
+      </c>
+      <c r="G33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.392737061919603</v>
+      </c>
+      <c r="D34" t="n">
+        <v>73986311.64926299</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2018407.988636</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G34" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3141811331255308</v>
+      </c>
+      <c r="D35" t="n">
+        <v>77168516.16882199</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2018407.988636</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14.63999999999942</v>
+      </c>
+      <c r="G35" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3102001013234438</v>
+      </c>
+      <c r="D36" t="n">
+        <v>189672890.32614</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2018407.988636</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G36" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.08473326412016542</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6709036.268739999</v>
+      </c>
+      <c r="E37" t="n">
+        <v>73986311.64926299</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.996100000000297</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.06615439066730074</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6709036.268739999</v>
+      </c>
+      <c r="E38" t="n">
+        <v>189672890.32614</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.996100000000297</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9752066019797281</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6711569.308262</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2024527.057436</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.962400000000343</v>
+      </c>
+      <c r="G40" t="n">
+        <v>25.86999999999989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4033140493370366</v>
+      </c>
+      <c r="D41" t="n">
+        <v>77485843.42795399</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2024527.057436</v>
+      </c>
+      <c r="F41" t="n">
+        <v>14.35999999999967</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25.86999999999989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3506885348638573</v>
+      </c>
+      <c r="D42" t="n">
+        <v>189883662.288359</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2024527.057436</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.900000000000546</v>
+      </c>
+      <c r="G42" t="n">
+        <v>25.86999999999989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3161083980065483</v>
+      </c>
+      <c r="D43" t="n">
+        <v>74012380.157157</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2024527.057436</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G43" t="n">
+        <v>25.86999999999989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.163099891992172</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6711569.308262</v>
+      </c>
+      <c r="E44" t="n">
+        <v>74012380.157157</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.962400000000343</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9711771476644615</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6712086.242094999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2024527.057436</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.828700000000026</v>
+      </c>
+      <c r="G46" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.3998535634581378</v>
+      </c>
+      <c r="D47" t="n">
+        <v>77537242.96847101</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2024527.057436</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9.119999999999891</v>
+      </c>
+      <c r="G47" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.3216327588635102</v>
+      </c>
+      <c r="D48" t="n">
+        <v>73983196.023399</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2024527.057436</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G48" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.2406275700283675</v>
+      </c>
+      <c r="D49" t="n">
+        <v>190836983.249458</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2024527.057436</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G49" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1535053258582754</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6712086.242094999</v>
+      </c>
+      <c r="E50" t="n">
+        <v>73983196.023399</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.828700000000026</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.133348489068328</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6712086.242094999</v>
+      </c>
+      <c r="E51" t="n">
+        <v>190836983.249458</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.828700000000026</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9958314876453737</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6719693.495955001</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2027646.09762</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.2160000000003492</v>
+      </c>
+      <c r="G53" t="n">
+        <v>30.52999999999975</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.4009739467853074</v>
+      </c>
+      <c r="D54" t="n">
+        <v>77520528.19302002</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2027646.09762</v>
+      </c>
+      <c r="F54" t="n">
+        <v>8.649999999999636</v>
+      </c>
+      <c r="G54" t="n">
+        <v>30.52999999999975</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.3401234062375417</v>
+      </c>
+      <c r="D55" t="n">
+        <v>191162656.94988</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2027646.09762</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G55" t="n">
+        <v>30.52999999999975</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.32101073728882</v>
+      </c>
+      <c r="D56" t="n">
+        <v>74116380.398775</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2027646.09762</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G56" t="n">
+        <v>30.52999999999975</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1789865228389505</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6719693.495955001</v>
+      </c>
+      <c r="E57" t="n">
+        <v>74116380.398775</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.2160000000003492</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.05853132744123504</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6719693.495955001</v>
+      </c>
+      <c r="E58" t="n">
+        <v>191162656.94988</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.2160000000003492</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.9887206604990799</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6714264.031530001</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2027646.09762</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.2151999999996406</v>
+      </c>
+      <c r="G60" t="n">
+        <v>30.98999999999978</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.4096983662218526</v>
+      </c>
+      <c r="D61" t="n">
+        <v>77533092.88659</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2027646.09762</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6.840000000000146</v>
+      </c>
+      <c r="G61" t="n">
+        <v>30.98999999999978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.3173209744520079</v>
+      </c>
+      <c r="D62" t="n">
+        <v>191305173.209205</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2027646.09762</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G62" t="n">
+        <v>30.98999999999978</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.3138515511720833</v>
+      </c>
+      <c r="D63" t="n">
+        <v>74118055.521015</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2027646.09762</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G63" t="n">
+        <v>30.98999999999978</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1789865605804221</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6714264.031530001</v>
+      </c>
+      <c r="E64" t="n">
+        <v>74118055.521015</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.2151999999996406</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.07421707010697395</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6714264.031530001</v>
+      </c>
+      <c r="E65" t="n">
+        <v>191305173.209205</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.2151999999996406</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.1000000000003638</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +2019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,7 +2052,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1255,7 +2075,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1278,7 +2098,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1301,10 +2121,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
         <v>0.8284678542694428</v>
@@ -1393,7 +2213,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1439,10 +2259,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C12" t="n">
         <v>0.7149108363658457</v>
@@ -1531,10 +2351,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C17" t="n">
         <v>0.8404649700648705</v>
@@ -1577,7 +2397,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1692,7 +2512,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1715,10 +2535,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C26" t="n">
         <v>0.7139250368402281</v>
@@ -1764,7 +2584,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C28" t="n">
         <v>0.077278536812051</v>
@@ -1784,7 +2604,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1807,7 +2627,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1830,7 +2650,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1853,7 +2673,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1876,10 +2696,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C34" t="n">
         <v>0.739591261744141</v>
@@ -1899,7 +2719,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -1918,6 +2738,627 @@
       </c>
       <c r="G35" t="n">
         <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.050815464706612</v>
+      </c>
+      <c r="D37" t="n">
+        <v>703249.4841003999</v>
+      </c>
+      <c r="E37" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.021164880000015</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8573103001101399</v>
+      </c>
+      <c r="D38" t="n">
+        <v>22250923.1833614</v>
+      </c>
+      <c r="E38" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2599999999999909</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.728482597954244</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3567374.0632316</v>
+      </c>
+      <c r="E39" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3799999999999955</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6932145768241226</v>
+      </c>
+      <c r="D40" t="n">
+        <v>16167013.8023696</v>
+      </c>
+      <c r="E40" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.2506189228368136</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3058704.411239</v>
+      </c>
+      <c r="E41" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.019999999999982</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.975450821045604</v>
+      </c>
+      <c r="D43" t="n">
+        <v>703249.4841003999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.3899999899999784</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.8542346663341148</v>
+      </c>
+      <c r="D44" t="n">
+        <v>22246300.414637</v>
+      </c>
+      <c r="E44" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.08999999999997499</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7447249811569018</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3542075.9756538</v>
+      </c>
+      <c r="E45" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.3299999999999841</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.6932145768241226</v>
+      </c>
+      <c r="D46" t="n">
+        <v>16138554.8766574</v>
+      </c>
+      <c r="E46" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.3747039460187439</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3062005.030187</v>
+      </c>
+      <c r="E47" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.04000000000002046</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.007270064891991</v>
+      </c>
+      <c r="D49" t="n">
+        <v>698686.6345877999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.2919999900000221</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.8421792803727745</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3528235.3127012</v>
+      </c>
+      <c r="E50" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.02999999999997272</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.8381102039642763</v>
+      </c>
+      <c r="D51" t="n">
+        <v>22237789.5548358</v>
+      </c>
+      <c r="E51" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.6932145768241226</v>
+      </c>
+      <c r="D52" t="n">
+        <v>16136511.9475452</v>
+      </c>
+      <c r="E52" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.3844542220019445</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3062714.7031456</v>
+      </c>
+      <c r="E53" t="n">
+        <v>241060.5729406</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.02392016976433371</v>
+      </c>
+      <c r="D54" t="n">
+        <v>698686.6345877999</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3062714.7031456</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.2919999900000221</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.013022340037144</v>
+      </c>
+      <c r="D56" t="n">
+        <v>700437.3274428</v>
+      </c>
+      <c r="E56" t="n">
+        <v>239657.410354</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2749999900000262</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.240000000000009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8706789687709968</v>
+      </c>
+      <c r="D57" t="n">
+        <v>22252225.3769272</v>
+      </c>
+      <c r="E57" t="n">
+        <v>239657.410354</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.08000000000004093</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.240000000000009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.6934471877819726</v>
+      </c>
+      <c r="D58" t="n">
+        <v>16148605.2736936</v>
+      </c>
+      <c r="E58" t="n">
+        <v>239657.410354</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.240000000000009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.6898788710744046</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3531288.3996984</v>
+      </c>
+      <c r="E59" t="n">
+        <v>239657.410354</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.3500000000000227</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.240000000000009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.3878400037217878</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3065029.6094112</v>
+      </c>
+      <c r="E60" t="n">
+        <v>239657.410354</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.09999999999996589</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.240000000000009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.016734423239517</v>
+      </c>
+      <c r="D62" t="n">
+        <v>700130.2914428</v>
+      </c>
+      <c r="E62" t="n">
+        <v>239657.410354</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.2649999899999784</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.760000000000048</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.8970964660257226</v>
+      </c>
+      <c r="D63" t="n">
+        <v>22253839.1274396</v>
+      </c>
+      <c r="E63" t="n">
+        <v>239657.410354</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.760000000000048</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6939124096976723</v>
+      </c>
+      <c r="D64" t="n">
+        <v>16149107.6767004</v>
+      </c>
+      <c r="E64" t="n">
+        <v>239657.410354</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.760000000000048</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.6841863640225873</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3544081.085342</v>
+      </c>
+      <c r="E65" t="n">
+        <v>239657.410354</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.760000000000048</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.4208061455815019</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3066942.228766</v>
+      </c>
+      <c r="E66" t="n">
+        <v>239657.410354</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.760000000000048</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0002529586971236035</v>
+      </c>
+      <c r="D67" t="n">
+        <v>700130.2914428</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3066942.228766</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.2649999899999784</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +3372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1964,10 +3405,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C2" t="n">
         <v>0.1545813570794317</v>
@@ -1987,10 +3428,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C3" t="n">
         <v>0.0096589639455908</v>
@@ -2010,10 +3451,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C5" t="n">
         <v>0.1982147134682083</v>
@@ -2033,10 +3474,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C6" t="n">
         <v>0.09177326302672351</v>
@@ -2056,10 +3497,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C7" t="n">
         <v>0.06178852482591741</v>
@@ -2079,10 +3520,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C9" t="n">
         <v>0.208296900790198</v>
@@ -2102,10 +3543,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C10" t="n">
         <v>0.1019074527110649</v>
@@ -2128,7 +3569,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C11" t="n">
         <v>0.051735598696265</v>
@@ -2148,10 +3589,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C13" t="n">
         <v>0.2181896395816187</v>
@@ -2171,10 +3612,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C14" t="n">
         <v>0.1118102488709181</v>
@@ -2194,10 +3635,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C15" t="n">
         <v>0.05132421463562317</v>
@@ -2217,10 +3658,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C17" t="n">
         <v>0.2284893503619925</v>
@@ -2240,10 +3681,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C18" t="n">
         <v>0.1221204307643222</v>
@@ -2263,10 +3704,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C19" t="n">
         <v>0.05132508872529516</v>
@@ -2286,10 +3727,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C20" t="n">
         <v>0.01876363821408869</v>
@@ -2305,6 +3746,420 @@
       </c>
       <c r="G20" t="n">
         <v>1.190000000000219e-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2792044475217913</v>
+      </c>
+      <c r="D22" t="n">
+        <v>806351.4563167999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>262290.9652092</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0003174300000000005</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.986999999999496e-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1792294279405068</v>
+      </c>
+      <c r="D23" t="n">
+        <v>806351.4563167999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>386858.0056035999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0003174300000000005</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9.799999999999393e-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.04961990501396054</v>
+      </c>
+      <c r="D24" t="n">
+        <v>806351.4563167999</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13757824.4428626</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0003174300000000005</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.899999999959491e-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2903072894912184</v>
+      </c>
+      <c r="D26" t="n">
+        <v>805523.0494362001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>262290.9652092</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0001491199999999956</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.986999999999496e-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1903434023582484</v>
+      </c>
+      <c r="D27" t="n">
+        <v>805523.0494362001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>386858.0056035999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0001491199999999956</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9.799999999999393e-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.04072374680260695</v>
+      </c>
+      <c r="D28" t="n">
+        <v>805523.0494362001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13778974.4519592</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0001491199999999956</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.590000000003762e-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.007575181097475661</v>
+      </c>
+      <c r="D29" t="n">
+        <v>805523.0494362001</v>
+      </c>
+      <c r="E29" t="n">
+        <v>17735009.957143</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0001491199999999956</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.029999999999087e-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.487655929387326</v>
+      </c>
+      <c r="D31" t="n">
+        <v>806760.4593954</v>
+      </c>
+      <c r="E31" t="n">
+        <v>261780.9309148</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0001539499999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.940000000000887e-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1007022845275212</v>
+      </c>
+      <c r="D32" t="n">
+        <v>386858.0056035999</v>
+      </c>
+      <c r="E32" t="n">
+        <v>261780.9309148</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0005000099999999952</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.940000000000887e-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.08906161993769338</v>
+      </c>
+      <c r="D33" t="n">
+        <v>17730815.9804842</v>
+      </c>
+      <c r="E33" t="n">
+        <v>261780.9309148</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.098999999999851e-05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.940000000000887e-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0830387954309431</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6110242.478610599</v>
+      </c>
+      <c r="E34" t="n">
+        <v>261780.9309148</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.999999999996123e-06</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.940000000000887e-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.03065545236661439</v>
+      </c>
+      <c r="D35" t="n">
+        <v>806760.4593954</v>
+      </c>
+      <c r="E35" t="n">
+        <v>13782758.0142318</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0001539499999999999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9.999999994736442e-09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4878483508545854</v>
+      </c>
+      <c r="D37" t="n">
+        <v>807687.8883812</v>
+      </c>
+      <c r="E37" t="n">
+        <v>261977.1774488</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0001539499999999999</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.9100000000018e-06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1308931509785289</v>
+      </c>
+      <c r="D38" t="n">
+        <v>17767533.91753</v>
+      </c>
+      <c r="E38" t="n">
+        <v>261977.1774488</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6.478000000000039e-05</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.9100000000018e-06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1009577967559409</v>
+      </c>
+      <c r="D39" t="n">
+        <v>387028.5189304</v>
+      </c>
+      <c r="E39" t="n">
+        <v>261977.1774488</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0004899999999999974</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.9100000000018e-06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.02052181003192894</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6114769.2251692</v>
+      </c>
+      <c r="E40" t="n">
+        <v>261977.1774488</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5.000000000000143e-05</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.9100000000018e-06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0007450037995718079</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13795134.0505704</v>
+      </c>
+      <c r="E41" t="n">
+        <v>261977.1774488</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.954999999999625e-05</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.9100000000018e-06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.2902565736541</v>
+      </c>
+      <c r="D43" t="n">
+        <v>808116.756266</v>
+      </c>
+      <c r="E43" t="n">
+        <v>261472.3488576</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0001539100000000002</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9.986000000000023e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2318,7 +4173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2351,10 +4206,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C2" t="n">
         <v>1.4311840464145</v>
@@ -2374,7 +4229,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -2397,7 +4252,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -2466,7 +4321,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -2489,10 +4344,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C9" t="n">
         <v>1.028326354986698</v>
@@ -2535,10 +4390,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C12" t="n">
         <v>1.362637709745241</v>
@@ -2581,7 +4436,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -2627,7 +4482,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -2650,7 +4505,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -2673,10 +4528,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C19" t="n">
         <v>1.062843725980865</v>
@@ -2696,7 +4551,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -2719,7 +4574,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -2742,7 +4597,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -2765,7 +4620,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -2788,10 +4643,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C25" t="n">
         <v>0.9940195627682717</v>
@@ -2807,6 +4662,466 @@
       </c>
       <c r="G25" t="n">
         <v>0.03999999999999915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5938417537883639</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9543737.988700021</v>
+      </c>
+      <c r="E27" t="n">
+        <v>568570.25485575</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3299999999999983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4001575462420588</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7910050.833531</v>
+      </c>
+      <c r="E28" t="n">
+        <v>568570.25485575</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.07700000000000529</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3299999999999983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.348356964679858</v>
+      </c>
+      <c r="D29" t="n">
+        <v>630243.07066539</v>
+      </c>
+      <c r="E29" t="n">
+        <v>568570.25485575</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3299999999999983</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2377525667616437</v>
+      </c>
+      <c r="D30" t="n">
+        <v>672906.24681336</v>
+      </c>
+      <c r="E30" t="n">
+        <v>568570.25485575</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2600000000000051</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3299999999999983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6152301070444022</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7902918.201293009</v>
+      </c>
+      <c r="E32" t="n">
+        <v>568614.12917085</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0140000000000029</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3299999999999983</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5938417537883639</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9516098.209463371</v>
+      </c>
+      <c r="E33" t="n">
+        <v>568614.12917085</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3299999999999983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3267085114958964</v>
+      </c>
+      <c r="D34" t="n">
+        <v>665724.9315005101</v>
+      </c>
+      <c r="E34" t="n">
+        <v>568614.12917085</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2100000000000009</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3299999999999983</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.312756892913509</v>
+      </c>
+      <c r="D35" t="n">
+        <v>630153.65357532</v>
+      </c>
+      <c r="E35" t="n">
+        <v>568614.12917085</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1600000000000037</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3299999999999983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6157184579294673</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7876369.4038092</v>
+      </c>
+      <c r="E37" t="n">
+        <v>569655.3885724801</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.002000000000002444</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5942664067318988</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9513675.91470618</v>
+      </c>
+      <c r="E38" t="n">
+        <v>569655.3885724801</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4377817970392527</v>
+      </c>
+      <c r="D39" t="n">
+        <v>630153.65357532</v>
+      </c>
+      <c r="E39" t="n">
+        <v>569655.3885724801</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.09000000000000341</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.398297920226836</v>
+      </c>
+      <c r="D40" t="n">
+        <v>665780.57491806</v>
+      </c>
+      <c r="E40" t="n">
+        <v>569655.3885724801</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1700000000000017</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5945848964395501</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9509896.398962701</v>
+      </c>
+      <c r="E42" t="n">
+        <v>569561.08332864</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.4519899767750314</v>
+      </c>
+      <c r="D43" t="n">
+        <v>665670.35635308</v>
+      </c>
+      <c r="E43" t="n">
+        <v>569561.08332864</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4381002867469039</v>
+      </c>
+      <c r="D44" t="n">
+        <v>630049.3329717601</v>
+      </c>
+      <c r="E44" t="n">
+        <v>569561.08332864</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.09000000000000341</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.4185520962461948</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7860425.97953496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>569561.08332864</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.09499999999999886</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.6157768477092035</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7850093.94642564</v>
+      </c>
+      <c r="E47" t="n">
+        <v>569561.08332864</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0009999999999976694</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.2399999999999949</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5943194883498408</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9440942.37561696</v>
+      </c>
+      <c r="E48" t="n">
+        <v>569561.08332864</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.2399999999999949</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.4873069465790181</v>
+      </c>
+      <c r="D49" t="n">
+        <v>666060.16088508</v>
+      </c>
+      <c r="E49" t="n">
+        <v>569561.08332864</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.2399999999999949</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.4378348786571946</v>
+      </c>
+      <c r="D50" t="n">
+        <v>629900.3984332799</v>
+      </c>
+      <c r="E50" t="n">
+        <v>569561.08332864</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.09000000000000341</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.2399999999999949</v>
       </c>
     </row>
   </sheetData>
